--- a/web-server/uploads/Final_SIA_Member_Sheet.91b5ae8a (1).xlsx
+++ b/web-server/uploads/Final_SIA_Member_Sheet.91b5ae8a (1).xlsx
@@ -635,7 +635,7 @@
   </sheetPr>
   <dimension ref="A1:AN11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Y1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="AI10" activeCellId="0" sqref="AI10"/>
     </sheetView>
   </sheetViews>
